--- a/target/classes/com/testData/dataExcel.xlsx
+++ b/target/classes/com/testData/dataExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cp\eclipse-workspace\JenkinsOne\src\main\resources\com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E7C42-530C-4905-A492-F089A070533E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF60B37-D7AE-45B4-89C2-877C45CB3E6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BBC9B369-1E26-4ED4-AF77-86BE22BE0936}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Silva</t>
+  </si>
+  <si>
+    <t>Last Name</t>
   </si>
 </sst>
 </file>
@@ -459,154 +459,155 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>785624</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
       <c r="H2">
         <v>8976</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D3">
         <v>785625</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
       <c r="H3">
         <v>8977</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>785626</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
       </c>
       <c r="H4">
         <v>8978</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
